--- a/data/horarios/original.raw.xlsx
+++ b/data/horarios/original.raw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-posgrado-sumify\schedules\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F34FFE7-C3DA-4812-831F-CC12F3043FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2101C9D-2ADB-4310-A3B1-003555EB2963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7FB3E7C3-DDFA-4D04-B2DE-1891EB7CA0B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="664">
   <si>
     <t>MAESTRIA</t>
   </si>
@@ -698,9 +698,6 @@
     <t>TALLER DE TESIS III   (FUSION CPGE)</t>
   </si>
   <si>
-    <t>Bobbio Rosas, Emilio Gustavo</t>
-  </si>
-  <si>
     <t>FORMULACION Y EVALUACION DE PROYECTOS INTERNACIONALES</t>
   </si>
   <si>
@@ -800,9 +797,6 @@
     <t>TALLER DE TESIS I</t>
   </si>
   <si>
-    <t>Caceres Aleman, Pedro Luis</t>
-  </si>
-  <si>
     <t>Pecho Rafael, Mélida Herlinda</t>
   </si>
   <si>
@@ -1523,15 +1517,9 @@
     <t>C3S20825</t>
   </si>
   <si>
-    <t>2A</t>
-  </si>
-  <si>
     <t>Quesquen Alarcón Erick Felix</t>
   </si>
   <si>
-    <t>2 B</t>
-  </si>
-  <si>
     <t>C3S20821</t>
   </si>
   <si>
@@ -1655,9 +1643,6 @@
     <t>Díaz Huaman, Hernan Martín</t>
   </si>
   <si>
-    <t>11:00 14:00</t>
-  </si>
-  <si>
     <t>MPTI</t>
   </si>
   <si>
@@ -2019,6 +2004,30 @@
   </si>
   <si>
     <t>Palomino Silva, Julio Andrés</t>
+  </si>
+  <si>
+    <t>``</t>
+  </si>
+  <si>
+    <t>C4S20123</t>
+  </si>
+  <si>
+    <t>C4S20125</t>
+  </si>
+  <si>
+    <t>C4S20121</t>
+  </si>
+  <si>
+    <t>C4S20122</t>
+  </si>
+  <si>
+    <t>C4S20124</t>
+  </si>
+  <si>
+    <t>C4S201A3</t>
+  </si>
+  <si>
+    <t>Cáceres Áleman, Pedro Luis</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2043,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2107,6 +2116,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2148,7 +2163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2262,6 +2277,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2633,13 +2651,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F603A237-C267-42A7-B8FD-5DAE6FF33536}" name="Table1" displayName="Table1" ref="A1:O250" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="A1:O250" xr:uid="{F603A237-C267-42A7-B8FD-5DAE6FF33536}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Palomino Silva, Julio Andres"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O250" xr:uid="{F603A237-C267-42A7-B8FD-5DAE6FF33536}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O250">
     <sortCondition ref="A1:A250"/>
   </sortState>
@@ -2929,7 +2941,7 @@
   <dimension ref="A1:O250"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -2997,7 +3009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
@@ -3032,7 +3044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -3067,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
@@ -3102,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>76</v>
       </c>
@@ -3137,7 +3149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>76</v>
       </c>
@@ -3172,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>76</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -3242,7 +3254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
@@ -3277,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>76</v>
       </c>
@@ -3312,7 +3324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
@@ -3382,7 +3394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>76</v>
       </c>
@@ -3417,7 +3429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
@@ -3452,7 +3464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
@@ -3487,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>76</v>
       </c>
@@ -3522,7 +3534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
@@ -3592,7 +3604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -3662,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -3697,7 +3709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -3732,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -3767,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3802,7 +3814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3872,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -3907,7 +3919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -4012,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -4047,7 +4059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -4082,7 +4094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -4152,7 +4164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -4187,15 +4199,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D36" s="13">
         <v>2</v>
@@ -4207,7 +4219,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -4222,15 +4234,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D37" s="13">
         <v>2</v>
@@ -4242,7 +4254,7 @@
         <v>204</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
@@ -4257,15 +4269,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D38" s="13">
         <v>2</v>
@@ -4277,7 +4289,7 @@
         <v>206</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
@@ -4292,15 +4304,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D39" s="13">
         <v>2</v>
@@ -4312,7 +4324,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -4327,15 +4339,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D40" s="13">
         <v>2</v>
@@ -4347,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -4362,15 +4374,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D41" s="13">
         <v>2</v>
@@ -4382,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -4397,15 +4409,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D42" s="13">
         <v>2</v>
@@ -4417,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -4432,27 +4444,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B43" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2</v>
+      </c>
+      <c r="E43" s="13">
+        <v>3</v>
+      </c>
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>281</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="13">
-        <v>2</v>
-      </c>
-      <c r="E43" s="13">
-        <v>3</v>
-      </c>
-      <c r="F43" s="13">
-        <v>1</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>283</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -4467,27 +4479,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2</v>
+      </c>
+      <c r="E44" s="13">
+        <v>3</v>
+      </c>
+      <c r="F44" s="13">
+        <v>3</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="D44" s="13">
-        <v>2</v>
-      </c>
-      <c r="E44" s="13">
-        <v>3</v>
-      </c>
-      <c r="F44" s="13">
-        <v>3</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
@@ -4502,15 +4514,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D45" s="13">
         <v>2</v>
@@ -4522,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
@@ -4537,15 +4549,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D46" s="13">
         <v>2</v>
@@ -4572,15 +4584,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D47" s="13">
         <v>2</v>
@@ -4592,7 +4604,7 @@
         <v>206</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
@@ -4607,27 +4619,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B48" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2</v>
+      </c>
+      <c r="E48" s="13">
+        <v>2</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D48" s="13">
-        <v>2</v>
-      </c>
-      <c r="E48" s="13">
-        <v>2</v>
-      </c>
-      <c r="F48" s="13">
-        <v>1</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>286</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
@@ -4642,27 +4654,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" s="13">
+        <v>2</v>
+      </c>
+      <c r="E49" s="13">
+        <v>3</v>
+      </c>
+      <c r="F49" s="13">
+        <v>3</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D49" s="13">
-        <v>2</v>
-      </c>
-      <c r="E49" s="13">
-        <v>3</v>
-      </c>
-      <c r="F49" s="13">
-        <v>3</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
@@ -4677,27 +4689,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D50" s="13">
+        <v>2</v>
+      </c>
+      <c r="E50" s="13">
+        <v>3</v>
+      </c>
+      <c r="F50" s="13">
+        <v>3</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D50" s="13">
-        <v>2</v>
-      </c>
-      <c r="E50" s="13">
-        <v>3</v>
-      </c>
-      <c r="F50" s="13">
-        <v>3</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
@@ -4712,15 +4724,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D51" s="13">
         <v>4</v>
@@ -4732,7 +4744,7 @@
         <v>141</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -4747,15 +4759,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D52" s="13">
         <v>4</v>
@@ -4767,7 +4779,7 @@
         <v>143</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
@@ -4782,15 +4794,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D53" s="13">
         <v>2</v>
@@ -4802,7 +4814,7 @@
         <v>4</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -4817,27 +4829,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D54" s="13">
+        <v>2</v>
+      </c>
+      <c r="E54" s="13">
+        <v>2</v>
+      </c>
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>287</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" s="13">
-        <v>2</v>
-      </c>
-      <c r="E54" s="13">
-        <v>2</v>
-      </c>
-      <c r="F54" s="13">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -4852,15 +4864,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D55" s="13">
         <v>2</v>
@@ -4872,7 +4884,7 @@
         <v>204</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -4887,15 +4899,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D56" s="13">
         <v>2</v>
@@ -4907,7 +4919,7 @@
         <v>206</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -4922,15 +4934,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D57" s="13">
         <v>4</v>
@@ -4942,7 +4954,7 @@
         <v>204</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -4957,15 +4969,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D58" s="13">
         <v>4</v>
@@ -4977,7 +4989,7 @@
         <v>206</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
@@ -4992,12 +5004,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>38</v>
@@ -5012,7 +5024,7 @@
         <v>162</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -5027,12 +5039,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>38</v>
@@ -5044,10 +5056,10 @@
         <v>10</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
@@ -5062,15 +5074,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D61" s="13">
         <v>4</v>
@@ -5082,7 +5094,7 @@
         <v>160</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
@@ -5097,12 +5109,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>169</v>
@@ -5114,10 +5126,10 @@
         <v>10</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
@@ -5132,15 +5144,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D63" s="13">
         <v>4</v>
@@ -5167,7 +5179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>121</v>
       </c>
@@ -5202,7 +5214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>121</v>
       </c>
@@ -5237,7 +5249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>121</v>
       </c>
@@ -5272,7 +5284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>121</v>
       </c>
@@ -5307,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>121</v>
       </c>
@@ -5342,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>121</v>
       </c>
@@ -5377,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>121</v>
       </c>
@@ -5412,7 +5424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>121</v>
       </c>
@@ -5447,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>121</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>121</v>
       </c>
@@ -5517,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>121</v>
       </c>
@@ -5552,7 +5564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>121</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>121</v>
       </c>
@@ -5622,7 +5634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>121</v>
       </c>
@@ -5657,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>121</v>
       </c>
@@ -5692,7 +5704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>121</v>
       </c>
@@ -5727,7 +5739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>121</v>
       </c>
@@ -5762,7 +5774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>121</v>
       </c>
@@ -5797,7 +5809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>121</v>
       </c>
@@ -5832,15 +5844,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A83" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D83" s="25">
         <v>4</v>
@@ -5852,7 +5864,7 @@
         <v>141</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
@@ -5867,15 +5879,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A84" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D84" s="25">
         <v>4</v>
@@ -5887,7 +5899,7 @@
         <v>143</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
@@ -5902,15 +5914,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A85" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D85" s="25">
         <v>2</v>
@@ -5922,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
@@ -5937,15 +5949,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A86" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D86" s="25">
         <v>2</v>
@@ -5972,15 +5984,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A87" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D87" s="25">
         <v>2</v>
@@ -5992,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
@@ -6007,15 +6019,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A88" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="25">
         <v>4</v>
@@ -6027,7 +6039,7 @@
         <v>204</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
@@ -6042,15 +6054,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A89" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D89" s="25">
         <v>2</v>
@@ -6062,7 +6074,7 @@
         <v>2</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
@@ -6077,12 +6089,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A90" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C90" s="25" t="s">
         <v>45</v>
@@ -6112,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A91" s="25" t="s">
         <v>72</v>
       </c>
@@ -6132,7 +6144,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H91" s="25" t="s">
         <v>75</v>
@@ -6147,12 +6159,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A92" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C92" s="25" t="s">
         <v>38</v>
@@ -6167,7 +6179,7 @@
         <v>160</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
@@ -6182,12 +6194,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A93" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C93" s="25" t="s">
         <v>38</v>
@@ -6202,7 +6214,7 @@
         <v>162</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
@@ -6217,15 +6229,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A94" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D94" s="25">
         <v>2</v>
@@ -6237,7 +6249,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
@@ -6252,15 +6264,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A95" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D95" s="25">
         <v>2</v>
@@ -6272,7 +6284,7 @@
         <v>3</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H95" s="25" t="s">
         <v>75</v>
@@ -6287,15 +6299,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A96" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D96" s="25">
         <v>2</v>
@@ -6307,7 +6319,7 @@
         <v>3</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H96" s="25" t="s">
         <v>75</v>
@@ -6322,15 +6334,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A97" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D97" s="25">
         <v>2</v>
@@ -6342,7 +6354,7 @@
         <v>3</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
@@ -6357,12 +6369,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>169</v>
@@ -6377,7 +6389,7 @@
         <v>170</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
@@ -6392,12 +6404,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A99" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C99" s="25" t="s">
         <v>169</v>
@@ -6409,10 +6421,10 @@
         <v>10</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
@@ -6427,15 +6439,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D100" s="25">
         <v>2</v>
@@ -6447,7 +6459,7 @@
         <v>4</v>
       </c>
       <c r="G100" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
@@ -6462,15 +6474,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D101" s="25">
         <v>2</v>
@@ -6482,7 +6494,7 @@
         <v>4</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H101" s="25" t="s">
         <v>75</v>
@@ -6497,15 +6509,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A102" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D102" s="25">
         <v>2</v>
@@ -6517,7 +6529,7 @@
         <v>4</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H102" s="25" t="s">
         <v>75</v>
@@ -6532,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>177</v>
       </c>
@@ -6567,7 +6579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>177</v>
       </c>
@@ -6602,7 +6614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>177</v>
       </c>
@@ -6637,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>177</v>
       </c>
@@ -6672,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>177</v>
       </c>
@@ -6707,7 +6719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>177</v>
       </c>
@@ -6742,7 +6754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>177</v>
       </c>
@@ -6777,7 +6789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>177</v>
       </c>
@@ -6804,7 +6816,7 @@
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -6814,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>177</v>
       </c>
@@ -6849,7 +6861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>177</v>
       </c>
@@ -6876,7 +6888,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
@@ -6884,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>177</v>
       </c>
@@ -6911,7 +6923,7 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
@@ -6919,7 +6931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>177</v>
       </c>
@@ -6954,7 +6966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>177</v>
       </c>
@@ -6989,7 +7001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>177</v>
       </c>
@@ -7012,7 +7024,7 @@
         <v>198</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
@@ -7024,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>177</v>
       </c>
@@ -7051,7 +7063,7 @@
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
@@ -7059,7 +7071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>177</v>
       </c>
@@ -7082,7 +7094,7 @@
         <v>202</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
@@ -7094,7 +7106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>177</v>
       </c>
@@ -7114,12 +7126,12 @@
         <v>4</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
@@ -7129,7 +7141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>177</v>
       </c>
@@ -7137,7 +7149,7 @@
         <v>192</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D120" s="7">
         <v>2</v>
@@ -7149,10 +7161,10 @@
         <v>4</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -7164,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A121" s="37" t="s">
         <v>177</v>
       </c>
@@ -7172,7 +7184,7 @@
         <v>193</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121" s="37">
         <v>2</v>
@@ -7187,7 +7199,7 @@
         <v>211</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I121" s="37"/>
       <c r="J121" s="37"/>
@@ -7199,7 +7211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>177</v>
       </c>
@@ -7207,7 +7219,7 @@
         <v>194</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D122" s="7">
         <v>2</v>
@@ -7219,14 +7231,14 @@
         <v>4</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
@@ -7234,15 +7246,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>229</v>
-      </c>
       <c r="C123" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D123" s="9">
         <v>4</v>
@@ -7254,7 +7266,7 @@
         <v>141</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
@@ -7269,27 +7281,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C124" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D124" s="9">
+        <v>2</v>
+      </c>
+      <c r="E124" s="9">
+        <v>3</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1</v>
+      </c>
+      <c r="G124" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="D124" s="9">
-        <v>2</v>
-      </c>
-      <c r="E124" s="9">
-        <v>3</v>
-      </c>
-      <c r="F124" s="9">
-        <v>1</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>250</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
@@ -7304,15 +7316,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D125" s="9">
         <v>2</v>
@@ -7339,15 +7351,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D126" s="9">
         <v>2</v>
@@ -7374,15 +7386,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D127" s="9">
         <v>4</v>
@@ -7394,7 +7406,7 @@
         <v>204</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>254</v>
+        <v>663</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
@@ -7409,15 +7421,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D128" s="9">
         <v>4</v>
@@ -7429,7 +7441,7 @@
         <v>206</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
@@ -7444,15 +7456,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D129" s="9">
         <v>2</v>
@@ -7464,7 +7476,7 @@
         <v>2</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H129" s="9" t="s">
         <v>75</v>
@@ -7479,15 +7491,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D130" s="9">
         <v>2</v>
@@ -7499,7 +7511,7 @@
         <v>2</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
@@ -7514,15 +7526,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D131" s="9">
         <v>2</v>
@@ -7549,15 +7561,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D132" s="9">
         <v>2</v>
@@ -7569,7 +7581,7 @@
         <v>2</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>75</v>
@@ -7584,12 +7596,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>38</v>
@@ -7604,7 +7616,7 @@
         <v>3</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
@@ -7619,15 +7631,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D134" s="9">
         <v>2</v>
@@ -7639,7 +7651,7 @@
         <v>3</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
@@ -7654,15 +7666,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D135" s="9">
         <v>2</v>
@@ -7674,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>75</v>
@@ -7689,15 +7701,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D136" s="9">
         <v>2</v>
@@ -7709,7 +7721,7 @@
         <v>3</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>75</v>
@@ -7724,15 +7736,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D137" s="9">
         <v>2</v>
@@ -7744,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
@@ -7759,15 +7771,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D138" s="9">
         <v>4</v>
@@ -7779,7 +7791,7 @@
         <v>170</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
@@ -7794,15 +7806,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D139" s="9">
         <v>2</v>
@@ -7814,7 +7826,7 @@
         <v>4</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
@@ -7829,15 +7841,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D140" s="9">
         <v>2</v>
@@ -7849,7 +7861,7 @@
         <v>4</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
@@ -7864,15 +7876,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D141" s="11">
         <v>2</v>
@@ -7884,7 +7896,7 @@
         <v>4</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H141" s="11" t="s">
         <v>75</v>
@@ -7899,15 +7911,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D142" s="3">
         <v>2</v>
@@ -7927,22 +7939,22 @@
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N142" s="3"/>
       <c r="O142" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D143" s="3">
         <v>2</v>
@@ -7954,7 +7966,7 @@
         <v>2</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
@@ -7962,22 +7974,22 @@
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N143" s="3"/>
       <c r="O143" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D144" s="3">
         <v>2</v>
@@ -7989,7 +8001,7 @@
         <v>3</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
@@ -7997,22 +8009,22 @@
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N144" s="3"/>
       <c r="O144" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D145" s="3">
         <v>2</v>
@@ -8024,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -8032,22 +8044,22 @@
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N145" s="3"/>
       <c r="O145" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D146" s="3">
         <v>5</v>
@@ -8059,7 +8071,7 @@
         <v>5</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -8067,22 +8079,22 @@
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="N146" s="3"/>
       <c r="O146" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D147" s="3">
         <v>5</v>
@@ -8094,7 +8106,7 @@
         <v>6</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -8102,22 +8114,22 @@
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="N147" s="3"/>
       <c r="O147" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D148" s="3">
         <v>2</v>
@@ -8129,7 +8141,7 @@
         <v>2</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -8137,23 +8149,23 @@
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N148" s="3"/>
       <c r="O148" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="D149" s="3">
         <v>2</v>
       </c>
@@ -8164,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
@@ -8172,22 +8184,22 @@
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="N149" s="3"/>
       <c r="O149" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A150" s="35" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D150" s="35">
         <v>5</v>
@@ -8199,7 +8211,7 @@
         <v>6</v>
       </c>
       <c r="G150" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H150" s="35"/>
       <c r="I150" s="35"/>
@@ -8207,22 +8219,22 @@
       <c r="K150" s="35"/>
       <c r="L150" s="35"/>
       <c r="M150" s="35" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="N150" s="35"/>
       <c r="O150" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D151" s="3">
         <v>2</v>
@@ -8234,7 +8246,7 @@
         <v>5</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -8242,22 +8254,22 @@
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="N151" s="3"/>
       <c r="O151" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D152" s="3">
         <v>2</v>
@@ -8277,22 +8289,22 @@
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N152" s="3"/>
       <c r="O152" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D153" s="3">
         <v>5</v>
@@ -8304,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
@@ -8312,22 +8324,22 @@
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N153" s="3"/>
       <c r="O153" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D154" s="3">
         <v>5</v>
@@ -8339,7 +8351,7 @@
         <v>2</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -8347,22 +8359,22 @@
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N154" s="3"/>
       <c r="O154" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D155" s="3">
         <v>5</v>
@@ -8374,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
@@ -8382,22 +8394,22 @@
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N155" s="3"/>
       <c r="O155" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D156" s="3">
         <v>5</v>
@@ -8409,7 +8421,7 @@
         <v>4</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -8417,22 +8429,22 @@
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N156" s="3"/>
       <c r="O156" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D157" s="13">
         <v>2</v>
@@ -8444,7 +8456,7 @@
         <v>3</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
@@ -8452,22 +8464,22 @@
       <c r="K157" s="13"/>
       <c r="L157" s="13"/>
       <c r="M157" s="13" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N157" s="13"/>
       <c r="O157" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D158" s="13">
         <v>2</v>
@@ -8479,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
@@ -8487,22 +8499,22 @@
       <c r="K158" s="13"/>
       <c r="L158" s="13"/>
       <c r="M158" s="13" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N158" s="13"/>
       <c r="O158" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A159" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D159" s="13">
         <v>2</v>
@@ -8514,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
@@ -8522,22 +8534,22 @@
       <c r="K159" s="13"/>
       <c r="L159" s="13"/>
       <c r="M159" s="13" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N159" s="13"/>
       <c r="O159" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D160" s="13">
         <v>5</v>
@@ -8549,7 +8561,7 @@
         <v>5</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
@@ -8557,22 +8569,22 @@
       <c r="K160" s="13"/>
       <c r="L160" s="13"/>
       <c r="M160" s="13" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="N160" s="13"/>
       <c r="O160" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D161" s="13">
         <v>5</v>
@@ -8584,7 +8596,7 @@
         <v>6</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
@@ -8592,22 +8604,22 @@
       <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="N161" s="13"/>
       <c r="O161" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="86.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="86.25" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D162" s="13">
         <v>2</v>
@@ -8619,7 +8631,7 @@
         <v>3</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
@@ -8627,22 +8639,22 @@
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N162" s="13"/>
       <c r="O162" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D163" s="13">
         <v>2</v>
@@ -8654,7 +8666,7 @@
         <v>2</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
@@ -8662,22 +8674,22 @@
       <c r="K163" s="13"/>
       <c r="L163" s="13"/>
       <c r="M163" s="13" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N163" s="13"/>
       <c r="O163" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D164" s="13">
         <v>2</v>
@@ -8689,7 +8701,7 @@
         <v>2</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
@@ -8697,22 +8709,22 @@
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N164" s="13"/>
       <c r="O164" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A165" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D165" s="13">
         <v>2</v>
@@ -8724,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
@@ -8732,22 +8744,22 @@
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N165" s="13"/>
       <c r="O165" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="C166" s="13" t="s">
         <v>623</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>628</v>
       </c>
       <c r="D166" s="13">
         <v>2</v>
@@ -8759,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
@@ -8767,22 +8779,22 @@
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="N166" s="13"/>
       <c r="O166" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A167" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
@@ -8790,7 +8802,7 @@
         <v>4</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
@@ -8798,22 +8810,22 @@
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N167" s="13"/>
       <c r="O167" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A168" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D168" s="13">
         <v>5</v>
@@ -8825,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
@@ -8833,22 +8845,22 @@
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
       <c r="M168" s="13" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N168" s="13"/>
       <c r="O168" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A169" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D169" s="13">
         <v>5</v>
@@ -8860,7 +8872,7 @@
         <v>2</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
@@ -8868,22 +8880,22 @@
       <c r="K169" s="13"/>
       <c r="L169" s="13"/>
       <c r="M169" s="13" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N169" s="13"/>
       <c r="O169" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A170" s="15" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D170" s="15">
         <v>5</v>
@@ -8895,7 +8907,7 @@
         <v>3</v>
       </c>
       <c r="G170" s="15" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
@@ -8903,22 +8915,22 @@
       <c r="K170" s="15"/>
       <c r="L170" s="15"/>
       <c r="M170" s="15" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N170" s="15"/>
       <c r="O170" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A171" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
@@ -8926,13 +8938,13 @@
         <v>4</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
       <c r="J171" s="13"/>
       <c r="K171" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L171" s="13"/>
       <c r="M171" s="13"/>
@@ -8941,15 +8953,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D172" s="13">
         <v>5</v>
@@ -8961,7 +8973,7 @@
         <v>4</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
@@ -8969,19 +8981,19 @@
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="N172" s="13"/>
       <c r="O172" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A173" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>38</v>
@@ -8996,7 +9008,7 @@
         <v>3</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H173" s="21"/>
       <c r="I173" s="21"/>
@@ -9011,15 +9023,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A174" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="B174" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="B174" s="21" t="s">
-        <v>384</v>
-      </c>
       <c r="C174" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D174" s="21">
         <v>2</v>
@@ -9046,15 +9058,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A175" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D175" s="21">
         <v>2</v>
@@ -9081,15 +9093,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A176" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D176" s="21">
         <v>2</v>
@@ -9116,15 +9128,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A177" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D177" s="21">
         <v>2</v>
@@ -9136,7 +9148,7 @@
         <v>3</v>
       </c>
       <c r="G177" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H177" s="21"/>
       <c r="I177" s="21"/>
@@ -9151,15 +9163,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A178" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D178" s="21">
         <v>4</v>
@@ -9171,7 +9183,7 @@
         <v>4</v>
       </c>
       <c r="G178" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H178" s="21"/>
       <c r="I178" s="21"/>
@@ -9186,15 +9198,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="103.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" ht="103.5" x14ac:dyDescent="0.35">
       <c r="A179" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D179" s="21">
         <v>2</v>
@@ -9206,7 +9218,7 @@
         <v>4</v>
       </c>
       <c r="G179" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H179" s="21" t="s">
         <v>75</v>
@@ -9221,15 +9233,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A180" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D180" s="21">
         <v>2</v>
@@ -9241,7 +9253,7 @@
         <v>4</v>
       </c>
       <c r="G180" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H180" s="21"/>
       <c r="I180" s="21"/>
@@ -9256,15 +9268,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A181" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D181" s="23">
         <v>2</v>
@@ -9276,7 +9288,7 @@
         <v>4</v>
       </c>
       <c r="G181" s="23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H181" s="23"/>
       <c r="I181" s="23"/>
@@ -9291,15 +9303,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A182" s="29" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B182" s="29" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D182" s="29">
         <v>4</v>
@@ -9311,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="29" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H182" s="29"/>
       <c r="I182" s="29"/>
@@ -9326,15 +9338,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A183" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="B183" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="B183" s="29" t="s">
-        <v>513</v>
-      </c>
       <c r="C183" s="29" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D183" s="29">
         <v>2</v>
@@ -9346,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="29" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H183" s="29"/>
       <c r="I183" s="29" t="s">
@@ -9361,15 +9373,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A184" s="29" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B184" s="29" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D184" s="29">
         <v>2</v>
@@ -9381,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="29" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H184" s="29"/>
       <c r="I184" s="29"/>
@@ -9396,15 +9408,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A185" s="29" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B185" s="29" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D185" s="29">
         <v>2</v>
@@ -9416,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="29" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H185" s="29"/>
       <c r="I185" s="29" t="s">
@@ -9431,15 +9443,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A186" s="29" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B186" s="29" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D186" s="29">
         <v>2</v>
@@ -9451,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="29" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H186" s="29"/>
       <c r="I186" s="29"/>
@@ -9466,15 +9478,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="86.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" ht="86.25" x14ac:dyDescent="0.35">
       <c r="A187" s="29" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B187" s="29" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D187" s="29">
         <v>2</v>
@@ -9486,7 +9498,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="29" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H187" s="29"/>
       <c r="I187" s="29"/>
@@ -9495,19 +9507,21 @@
       <c r="L187" s="29"/>
       <c r="M187" s="29"/>
       <c r="N187" s="29" t="s">
-        <v>539</v>
+        <v>17</v>
       </c>
       <c r="O187" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A188" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="B188" s="29"/>
+        <v>505</v>
+      </c>
+      <c r="B188" s="29" t="s">
+        <v>658</v>
+      </c>
       <c r="C188" s="29" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D188" s="29">
         <v>4</v>
@@ -9519,7 +9533,7 @@
         <v>2</v>
       </c>
       <c r="G188" s="29" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
@@ -9534,13 +9548,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A189" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="B189" s="29"/>
+        <v>505</v>
+      </c>
+      <c r="B189" s="39" t="s">
+        <v>659</v>
+      </c>
       <c r="C189" s="29" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D189" s="29">
         <v>2</v>
@@ -9552,7 +9568,7 @@
         <v>2</v>
       </c>
       <c r="G189" s="29" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="29" t="s">
@@ -9567,13 +9583,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A190" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="B190" s="29"/>
+        <v>505</v>
+      </c>
+      <c r="B190" s="39" t="s">
+        <v>660</v>
+      </c>
       <c r="C190" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D190" s="29">
         <v>2</v>
@@ -9585,7 +9603,7 @@
         <v>2</v>
       </c>
       <c r="G190" s="29" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
@@ -9600,13 +9618,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A191" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="B191" s="29"/>
+        <v>505</v>
+      </c>
+      <c r="B191" s="29" t="s">
+        <v>657</v>
+      </c>
       <c r="C191" s="29" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D191" s="29">
         <v>2</v>
@@ -9618,7 +9638,7 @@
         <v>2</v>
       </c>
       <c r="G191" s="29" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H191" s="29"/>
       <c r="I191" s="29"/>
@@ -9627,19 +9647,21 @@
       <c r="L191" s="29"/>
       <c r="M191" s="29"/>
       <c r="N191" s="29" t="s">
-        <v>539</v>
+        <v>17</v>
       </c>
       <c r="O191" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A192" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="B192" s="29"/>
+        <v>505</v>
+      </c>
+      <c r="B192" s="39" t="s">
+        <v>661</v>
+      </c>
       <c r="C192" s="29" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D192" s="29">
         <v>2</v>
@@ -9651,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="G192" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
@@ -9666,13 +9688,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A193" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="B193" s="31"/>
+        <v>505</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>662</v>
+      </c>
       <c r="C193" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D193" s="31">
         <v>2</v>
@@ -9684,7 +9708,7 @@
         <v>2</v>
       </c>
       <c r="G193" s="31" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H193" s="31"/>
       <c r="I193" s="31" t="s">
@@ -9699,15 +9723,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A194" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D194" s="27">
         <v>8</v>
@@ -9719,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
@@ -9734,15 +9758,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A195" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="B195" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="B195" s="27" t="s">
-        <v>450</v>
-      </c>
       <c r="C195" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D195" s="27">
         <v>2</v>
@@ -9754,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H195" s="27"/>
       <c r="I195" s="27" t="s">
@@ -9769,15 +9793,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A196" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D196" s="27">
         <v>2</v>
@@ -9789,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="G196" s="27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H196" s="27"/>
       <c r="I196" s="27" t="s">
@@ -9804,15 +9828,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A197" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C197" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D197" s="27">
         <v>2</v>
@@ -9824,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
@@ -9839,15 +9863,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A198" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C198" s="27" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D198" s="27">
         <v>2</v>
@@ -9859,7 +9883,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H198" s="27"/>
       <c r="I198" s="27"/>
@@ -9874,15 +9898,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A199" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C199" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D199" s="27">
         <v>4</v>
@@ -9894,7 +9918,7 @@
         <v>204</v>
       </c>
       <c r="G199" s="27" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
@@ -9909,15 +9933,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A200" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C200" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D200" s="27">
         <v>4</v>
@@ -9929,7 +9953,7 @@
         <v>206</v>
       </c>
       <c r="G200" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H200" s="27"/>
       <c r="I200" s="27"/>
@@ -9944,15 +9968,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A201" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C201" s="27" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D201" s="27">
         <v>2</v>
@@ -9964,11 +9988,11 @@
         <v>2</v>
       </c>
       <c r="G201" s="27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H201" s="27"/>
       <c r="I201" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J201" s="27"/>
       <c r="K201" s="27"/>
@@ -9979,15 +10003,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A202" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C202" s="27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D202" s="27">
         <v>2</v>
@@ -9999,13 +10023,13 @@
         <v>2</v>
       </c>
       <c r="G202" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H202" s="27"/>
       <c r="I202" s="27"/>
       <c r="J202" s="27"/>
       <c r="K202" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L202" s="27"/>
       <c r="M202" s="27"/>
@@ -10014,15 +10038,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A203" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C203" s="27" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D203" s="27">
         <v>2</v>
@@ -10034,11 +10058,11 @@
         <v>2</v>
       </c>
       <c r="G203" s="27" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H203" s="27"/>
       <c r="I203" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J203" s="27"/>
       <c r="K203" s="27"/>
@@ -10049,15 +10073,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A204" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C204" s="27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D204" s="27">
         <v>2</v>
@@ -10069,13 +10093,13 @@
         <v>2</v>
       </c>
       <c r="G204" s="27" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H204" s="27"/>
       <c r="I204" s="27"/>
       <c r="J204" s="27"/>
       <c r="K204" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L204" s="27"/>
       <c r="M204" s="27"/>
@@ -10084,15 +10108,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A205" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="B205" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C205" s="23" t="s">
         <v>479</v>
-      </c>
-      <c r="B205" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="C205" s="23" t="s">
-        <v>481</v>
       </c>
       <c r="D205" s="23">
         <v>4</v>
@@ -10104,7 +10128,7 @@
         <v>141</v>
       </c>
       <c r="G205" s="23" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H205" s="23"/>
       <c r="I205" s="23"/>
@@ -10119,15 +10143,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A206" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C206" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="B206" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="C206" s="21" t="s">
-        <v>481</v>
       </c>
       <c r="D206" s="21">
         <v>4</v>
@@ -10139,7 +10163,7 @@
         <v>143</v>
       </c>
       <c r="G206" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H206" s="21"/>
       <c r="I206" s="21"/>
@@ -10154,15 +10178,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A207" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D207" s="21">
         <v>2</v>
@@ -10174,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="G207" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H207" s="21"/>
       <c r="I207" s="21" t="s">
@@ -10189,15 +10213,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A208" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D208" s="21">
         <v>2</v>
@@ -10209,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="G208" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H208" s="21"/>
       <c r="I208" s="21"/>
@@ -10224,15 +10248,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A209" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D209" s="21">
         <v>2</v>
@@ -10244,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="G209" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H209" s="21"/>
       <c r="I209" s="21"/>
@@ -10259,15 +10283,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A210" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B210" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D210" s="21">
         <v>2</v>
@@ -10279,7 +10303,7 @@
         <v>1</v>
       </c>
       <c r="G210" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H210" s="21"/>
       <c r="I210" s="21" t="s">
@@ -10294,15 +10318,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A211" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>476</v>
+        <v>656</v>
       </c>
       <c r="D211" s="21">
         <v>4</v>
@@ -10311,10 +10335,10 @@
         <v>6</v>
       </c>
       <c r="F211" s="21" t="s">
-        <v>495</v>
+        <v>204</v>
       </c>
       <c r="G211" s="21" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H211" s="21"/>
       <c r="I211" s="21"/>
@@ -10329,15 +10353,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A212" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D212" s="21">
         <v>4</v>
@@ -10346,10 +10370,10 @@
         <v>6</v>
       </c>
       <c r="F212" s="21" t="s">
-        <v>497</v>
+        <v>206</v>
       </c>
       <c r="G212" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H212" s="21"/>
       <c r="I212" s="21"/>
@@ -10364,15 +10388,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A213" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D213" s="21">
         <v>2</v>
@@ -10384,7 +10408,7 @@
         <v>2</v>
       </c>
       <c r="G213" s="21" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H213" s="21"/>
       <c r="I213" s="21"/>
@@ -10399,15 +10423,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A214" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D214" s="21">
         <v>2</v>
@@ -10419,7 +10443,7 @@
         <v>2</v>
       </c>
       <c r="G214" s="21" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H214" s="21"/>
       <c r="I214" s="21" t="s">
@@ -10434,15 +10458,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A215" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D215" s="21">
         <v>2</v>
@@ -10454,7 +10478,7 @@
         <v>2</v>
       </c>
       <c r="G215" s="21" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H215" s="21"/>
       <c r="I215" s="21"/>
@@ -10469,15 +10493,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A216" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D216" s="21">
         <v>2</v>
@@ -10489,7 +10513,7 @@
         <v>2</v>
       </c>
       <c r="G216" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H216" s="21"/>
       <c r="I216" s="21" t="s">
@@ -10504,15 +10528,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D217" s="1">
         <v>4</v>
@@ -10524,7 +10548,7 @@
         <v>141</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -10539,15 +10563,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D218" s="1">
         <v>4</v>
@@ -10559,7 +10583,7 @@
         <v>143</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -10574,16 +10598,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A219" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="B219" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="C219" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="B219" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C219" s="33" t="s">
-        <v>545</v>
-      </c>
       <c r="D219" s="33">
         <v>2</v>
       </c>
@@ -10594,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="G219" s="33" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H219" s="33"/>
       <c r="I219" s="33"/>
@@ -10603,21 +10627,21 @@
       <c r="L219" s="33"/>
       <c r="M219" s="33"/>
       <c r="N219" s="33" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="O219" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D220" s="1">
         <v>2</v>
@@ -10629,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -10644,15 +10668,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D221" s="1">
         <v>2</v>
@@ -10664,7 +10688,7 @@
         <v>1</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -10679,15 +10703,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D222" s="1">
         <v>2</v>
@@ -10699,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H222" s="1"/>
       <c r="I222" s="1" t="s">
@@ -10714,15 +10738,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -10734,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H223" s="1"/>
       <c r="I223" s="1" t="s">
@@ -10749,12 +10773,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>38</v>
@@ -10769,7 +10793,7 @@
         <v>204</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
@@ -10784,12 +10808,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>38</v>
@@ -10804,7 +10828,7 @@
         <v>206</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
@@ -10819,15 +10843,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D226" s="1">
         <v>2</v>
@@ -10839,7 +10863,7 @@
         <v>2</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
@@ -10848,21 +10872,21 @@
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="O226" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -10874,7 +10898,7 @@
         <v>2</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H227" s="1"/>
       <c r="I227" s="1" t="s">
@@ -10889,15 +10913,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -10909,7 +10933,7 @@
         <v>2</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -10924,15 +10948,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -10944,7 +10968,7 @@
         <v>2</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H229" s="1"/>
       <c r="I229" s="1" t="s">
@@ -10959,15 +10983,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D230" s="1">
         <v>2</v>
@@ -10979,7 +11003,7 @@
         <v>2</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -10994,15 +11018,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A231" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D231" s="17">
         <v>2</v>
@@ -11014,7 +11038,7 @@
         <v>4</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H231" s="17"/>
       <c r="I231" s="17"/>
@@ -11029,15 +11053,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A232" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B232" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D232" s="17">
         <v>2</v>
@@ -11049,7 +11073,7 @@
         <v>3</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H232" s="17"/>
       <c r="I232" s="17"/>
@@ -11064,15 +11088,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A233" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B233" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B233" s="17" t="s">
-        <v>337</v>
-      </c>
       <c r="C233" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D233" s="17">
         <v>2</v>
@@ -11084,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H233" s="17"/>
       <c r="I233" s="17"/>
@@ -11099,15 +11123,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A234" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D234" s="19">
         <v>2</v>
@@ -11119,7 +11143,7 @@
         <v>204</v>
       </c>
       <c r="G234" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -11134,15 +11158,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A235" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D235" s="17">
         <v>4</v>
@@ -11154,7 +11178,7 @@
         <v>141</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
@@ -11169,15 +11193,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A236" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B236" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D236" s="17">
         <v>4</v>
@@ -11189,7 +11213,7 @@
         <v>143</v>
       </c>
       <c r="G236" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H236" s="17"/>
       <c r="I236" s="17"/>
@@ -11204,15 +11228,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A237" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B237" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D237" s="17">
         <v>2</v>
@@ -11224,7 +11248,7 @@
         <v>1</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H237" s="17"/>
       <c r="I237" s="17"/>
@@ -11239,15 +11263,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A238" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B238" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D238" s="17">
         <v>2</v>
@@ -11274,15 +11298,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A239" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D239" s="17">
         <v>2</v>
@@ -11294,7 +11318,7 @@
         <v>206</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H239" s="17"/>
       <c r="I239" s="17"/>
@@ -11309,15 +11333,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A240" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D240" s="17">
         <v>2</v>
@@ -11329,7 +11353,7 @@
         <v>4</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H240" s="17"/>
       <c r="I240" s="17"/>
@@ -11344,15 +11368,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A241" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D241" s="17">
         <v>2</v>
@@ -11364,7 +11388,7 @@
         <v>4</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H241" s="17"/>
       <c r="I241" s="17"/>
@@ -11379,15 +11403,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A242" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D242" s="17">
         <v>2</v>
@@ -11399,7 +11423,7 @@
         <v>3</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H242" s="17"/>
       <c r="I242" s="17"/>
@@ -11414,15 +11438,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A243" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D243" s="17">
         <v>2</v>
@@ -11434,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="G243" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H243" s="17"/>
       <c r="I243" s="17"/>
@@ -11449,15 +11473,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A244" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D244" s="17">
         <v>4</v>
@@ -11469,7 +11493,7 @@
         <v>204</v>
       </c>
       <c r="G244" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H244" s="17"/>
       <c r="I244" s="17"/>
@@ -11484,15 +11508,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A245" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D245" s="17">
         <v>4</v>
@@ -11504,7 +11528,7 @@
         <v>206</v>
       </c>
       <c r="G245" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H245" s="17"/>
       <c r="I245" s="17"/>
@@ -11519,12 +11543,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A246" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C246" s="17" t="s">
         <v>38</v>
@@ -11539,7 +11563,7 @@
         <v>160</v>
       </c>
       <c r="G246" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H246" s="17"/>
       <c r="I246" s="17"/>
@@ -11554,12 +11578,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="51.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A247" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>38</v>
@@ -11574,7 +11598,7 @@
         <v>162</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H247" s="17"/>
       <c r="I247" s="17"/>
@@ -11589,12 +11613,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A248" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C248" s="17" t="s">
         <v>169</v>
@@ -11609,7 +11633,7 @@
         <v>170</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H248" s="17"/>
       <c r="I248" s="17"/>
@@ -11624,12 +11648,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="34.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A249" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B249" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>169</v>
@@ -11641,10 +11665,10 @@
         <v>10</v>
       </c>
       <c r="F249" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H249" s="17"/>
       <c r="I249" s="17"/>
@@ -11659,15 +11683,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="69" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" ht="69" x14ac:dyDescent="0.35">
       <c r="A250" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D250" s="19">
         <v>2</v>
@@ -11679,7 +11703,7 @@
         <v>3</v>
       </c>
       <c r="G250" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>

--- a/data/horarios/original.raw.xlsx
+++ b/data/horarios/original.raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2101C9D-2ADB-4310-A3B1-003555EB2963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F69ECB-FE2D-4460-AF20-311EE2843B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7FB3E7C3-DDFA-4D04-B2DE-1891EB7CA0B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7FB3E7C3-DDFA-4D04-B2DE-1891EB7CA0B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2941,7 +2941,7 @@
   <dimension ref="A1:O250"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
